--- a/WhatsAppExcelMonitorElevenLabsV2/scripts/excel/30122025.xlsx
+++ b/WhatsAppExcelMonitorElevenLabsV2/scripts/excel/30122025.xlsx
@@ -466,7 +466,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD6"/>
@@ -534,8 +534,6 @@
           <t>Alejandro</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
           <t>56994148421</t>
@@ -584,7 +582,6 @@
           <t>Luces</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
           <t>34672527995</t>
@@ -622,6 +619,55 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Mariangely</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>González</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>56972028078</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>mariangelygonzalez14@gmail.com</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>martes, 30 de diciembre de 2025
+*Evangelio del Día*
+Lectura del santo evangelio según san Lucas
+Lucas 2, 36-40 En aquel tiempo, había una profetisa, Ana, hija de Fanuel, de la tribu de Aser. Era una mujer muy anciana. De joven, había vivido siete años casada y tenía ya ochenta y cuatro años de edad. No se apartaba del templo ni de día ni de noche, sirviendo a Dios con ayunos y oraciones. (Cuando José y María entraban en el templo para la presentación del niño,) se acercó Ana, dando gracias a Dios y hablando del niño a todos los que aguardaban la liberación de Israel. Una vez que José y María cumplieron todo lo que prescribía la ley del Señor, se volvieron a Galilea, a su ciudad de Nazaret. El niño iba creciendo y fortaleciéndose, se llenaba de sabiduría y la gracia de Dios estaba con él.
+*Oración de la mañana*
+Señor Jesús, que creciste en sabiduría y gracia, te pido que en este nuevo día me ayudes a crecer también en sabiduría, que pueda aprender de ti y ser guiado por tus enseñanzas. Que, al igual que Ana, pueda reconocer tu presencia en mi vida y agradecer por ella.
+Padre celestial, te doy gracias por este nuevo día que me regalas. Agradezco tu amor incondicional y tu guía constante en mi vida. Ayúdame a cumplir tus mandamientos y a vivir conforme a tu voluntad, tal como lo hicieron José y María. Que nunca me aparte de tu presencia, ni de día ni de noche.
+Espíritu Santo, te invoco para que me ilumines y me fortalezcas. Ayúdame a servir a Dios con dedicación y amor, tal como lo hizo Ana en el templo. Que pueda hablar de Jesús a todos los que encuentre en mi camino y ser testimonio de su amor y su gracia.
+Y así, en la plenitud de la Trinidad, inicio este día con esperanza y gratitud. Amén.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
